--- a/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,74</t>
+          <t>36,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>29,57</t>
+          <t>29,22</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,34</t>
+          <t>34,66</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,83; 38,61</t>
+          <t>33,84; 39,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,27; 32,88</t>
+          <t>25,43; 33,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33,49; 36,77</t>
+          <t>32,38; 37,04</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27,75</t>
+          <t>29,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,09</t>
+          <t>22,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,28</t>
+          <t>28,32</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,07; 29,92</t>
+          <t>25,38; 32,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,33; 22,61</t>
+          <t>20,08; 24,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,0; 27,46</t>
+          <t>24,05; 31,61</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>24,36</t>
+          <t>23,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,17</t>
+          <t>20,14</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,72</t>
+          <t>22,38</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,17; 26,51</t>
+          <t>21,22; 26,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 22,33</t>
+          <t>17,71; 22,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 24,27</t>
+          <t>20,73; 24,3</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,3</t>
+          <t>29,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,86</t>
+          <t>22,43</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,78</t>
+          <t>27,76</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,09; 30,4</t>
+          <t>26,61; 31,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,61; 23,01</t>
+          <t>20,79; 23,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,88; 27,81</t>
+          <t>25,12; 30,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número total de años que ha consumido tabaco años</t>
+          <t>Número total de años que ha consumido tabaco años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,84; 39,54</t>
+          <t>33,61; 39,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,43; 33,33</t>
+          <t>25,14; 33,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,38; 37,04</t>
+          <t>32,33; 37,02</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,38; 32,15</t>
+          <t>25,54; 32,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 24,28</t>
+          <t>20,17; 24,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,05; 31,61</t>
+          <t>24,15; 31,34</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 26,02</t>
+          <t>21,27; 26,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 22,68</t>
+          <t>17,56; 22,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,73; 24,3</t>
+          <t>20,52; 24,01</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 31,8</t>
+          <t>26,68; 31,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 23,87</t>
+          <t>20,95; 23,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,12; 30,82</t>
+          <t>25,11; 30,6</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Estudios-trans_orig.xlsx
@@ -556,7 +556,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>36,64</t>
+          <t>36,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -566,7 +566,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>34,66</t>
+          <t>34,64</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,61; 39,22</t>
+          <t>33,56; 39,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,14; 33,08</t>
+          <t>25,04; 33,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>32,33; 37,02</t>
+          <t>32,42; 36,94</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>29,99</t>
+          <t>25,66</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>22,29</t>
+          <t>22,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,32</t>
+          <t>24,31</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,54; 32,19</t>
+          <t>23,81; 27,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,17; 24,44</t>
+          <t>19,97; 24,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,15; 31,34</t>
+          <t>23,01; 25,73</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23,69</t>
+          <t>23,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,14</t>
+          <t>19,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,38</t>
+          <t>22,34</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 26,04</t>
+          <t>21,5; 26,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 22,61</t>
+          <t>17,03; 22,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,52; 24,01</t>
+          <t>20,49; 23,95</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,59</t>
+          <t>27,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,43</t>
+          <t>22,19</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,76</t>
+          <t>25,33</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,68; 31,79</t>
+          <t>25,63; 28,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 23,87</t>
+          <t>20,69; 23,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,11; 30,6</t>
+          <t>24,22; 26,4</t>
         </is>
       </c>
     </row>
